--- a/FinalResults/HeapSort.xlsx
+++ b/FinalResults/HeapSort.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TuDublin\Masters Project\Git Clone\MastersProject2021\Results\HeapSort\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EB2F68-DBE9-48A1-9248-C10B36A2E349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,31 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Iteration</t>
+  </si>
+  <si>
+    <t>AssemblyScript</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +360,549 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.8931935999999999E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.9636199E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.9334825999999999E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.7621112000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.101774776</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6366532000000002E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.7678332000000001E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.3726233999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.108096625</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.0746500000000001E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.6454208000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.9911419E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.10709537700000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.3383140999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.3960596000000001E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.0283496999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.0618783999999994E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.7129190999999998E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.3648143E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.9554132999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8.9868484999999998E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.4176025E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.7625973E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5633785000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8.583723E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.9756694000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.7101623E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.0971426999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8.6917750000000002E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.6810720000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6590265E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.6599450999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8.6537947000000004E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.7622619999999999E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.6014833999999999E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5.2497865999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.8163557000000004E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.702006E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.1461757000000001E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.3615817999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8.7559367999999999E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.4924160000000001E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5041634E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5638662999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.6482435999999996E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.5128986999999998E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.9736340000000002E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.8834447999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.7832366999999995E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7253783000000002E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.7866407000000001E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.9175576999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8.7786174999999994E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.6512677E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.6846429999999999E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2.9170957000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9.4765550000000004E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.2209998000000002E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.5437269999999999E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.5838705E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.8945335E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.7378154999999999E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.3785466999999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.7194872999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>8.8381191999999997E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.743084E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6353428E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.8333876000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.9744712000000004E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2.3993503999999999E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5782609E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3.8196178999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8.8191909999999998E-2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.9256058999999999E-2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.7897503000000001E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.7156271E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>8.7591999000000004E-2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.9107524000000001E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0507672E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.5926421E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>8.9480535E-2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.8608792999999998E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.8669943000000001E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.9082187999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.6790465000000006E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.5346693999999999E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.6648647999999999E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.1054992E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.9340026000000003E-2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.9418548000000001E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.7225969000000001E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3.0518714999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.8036167999999998E-2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.5464607E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.7078485000000001E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.9147817999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9.0155917000000002E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1.8639104E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.2330934999999998E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>5.1899031999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9.1638176000000002E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.7679449E-2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.7601617999999999E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.4820061999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.9674977000000003E-2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.7010979000000001E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.7651468E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.2476606999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>8.8043577999999997E-2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.9233521E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.6678162999999999E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4.3322386999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>8.8857212000000005E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.7379978000000001E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.6060833E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.6768997999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9.0912836999999996E-2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.4595730999999999E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2.0934903000000001E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>3.5027013000000003E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>